--- a/biology/Zoologie/Acleris_curvalana/Acleris_curvalana.xlsx
+++ b/biology/Zoologie/Acleris_curvalana/Acleris_curvalana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acleris curvalana est une espèce nord-américaine de lépidoptères (papillons) de la famille des Tortricidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago a une envergure de 14 mm. Les ailes antérieures sont jaune citron pâle, couvert de rouge ocre vif. La base de l'aile est jaune, tout comme une petite marge le long du termen. Il y a une tache ronde jaunâtre au milieu de l'aile.
 Il vole de mars à août.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On recense Acleris curvalana dans les pays suivants :
 au Canada : Alberta, Colombie-Britannique, Manitoba, Nouveau-Brunswick, Ontario, Québec, Saskatchewan, Terre-Neuve-et-Labrador ;
@@ -576,9 +592,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille se nourrit des feuilles de chênes (Quercus) et d'églantiers (Rosa) ainsi que de Vaccinium angustifolium, Vaccinium pallidum et Gaylussacia baccata[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit des feuilles de chênes (Quercus) et d'églantiers (Rosa) ainsi que de Vaccinium angustifolium, Vaccinium pallidum et Gaylussacia baccata.
 </t>
         </is>
       </c>
